--- a/app/static/example.xlsx
+++ b/app/static/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="242">
   <si>
     <t>FISCODE</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Фамилия 1</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>M</t>
   </si>
   <si>
     <t>RUS</t>
@@ -89,7 +89,7 @@
     <t>Фамилия 2</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>L</t>
   </si>
   <si>
     <t>Name 3</t>
@@ -198,6 +198,546 @@
   </si>
   <si>
     <t>Фамилия 11</t>
+  </si>
+  <si>
+    <t>Name 12</t>
+  </si>
+  <si>
+    <t>Surname 12</t>
+  </si>
+  <si>
+    <t>Имя 12</t>
+  </si>
+  <si>
+    <t>Фамилия 12</t>
+  </si>
+  <si>
+    <t>Name 13</t>
+  </si>
+  <si>
+    <t>Surname 13</t>
+  </si>
+  <si>
+    <t>Имя 13</t>
+  </si>
+  <si>
+    <t>Фамилия 13</t>
+  </si>
+  <si>
+    <t>Name 14</t>
+  </si>
+  <si>
+    <t>Surname 14</t>
+  </si>
+  <si>
+    <t>Имя 14</t>
+  </si>
+  <si>
+    <t>Фамилия 14</t>
+  </si>
+  <si>
+    <t>Name 15</t>
+  </si>
+  <si>
+    <t>Surname 15</t>
+  </si>
+  <si>
+    <t>Имя 15</t>
+  </si>
+  <si>
+    <t>Фамилия 15</t>
+  </si>
+  <si>
+    <t>Name 16</t>
+  </si>
+  <si>
+    <t>Surname 16</t>
+  </si>
+  <si>
+    <t>Имя 16</t>
+  </si>
+  <si>
+    <t>Фамилия 16</t>
+  </si>
+  <si>
+    <t>Name 17</t>
+  </si>
+  <si>
+    <t>Surname 17</t>
+  </si>
+  <si>
+    <t>Имя 17</t>
+  </si>
+  <si>
+    <t>Фамилия 17</t>
+  </si>
+  <si>
+    <t>Name 18</t>
+  </si>
+  <si>
+    <t>Surname 18</t>
+  </si>
+  <si>
+    <t>Имя 18</t>
+  </si>
+  <si>
+    <t>Фамилия 18</t>
+  </si>
+  <si>
+    <t>Name 19</t>
+  </si>
+  <si>
+    <t>Surname 19</t>
+  </si>
+  <si>
+    <t>Имя 19</t>
+  </si>
+  <si>
+    <t>Фамилия 19</t>
+  </si>
+  <si>
+    <t>Name 20</t>
+  </si>
+  <si>
+    <t>Surname 20</t>
+  </si>
+  <si>
+    <t>Имя 20</t>
+  </si>
+  <si>
+    <t>Фамилия 20</t>
+  </si>
+  <si>
+    <t>Name 21</t>
+  </si>
+  <si>
+    <t>Surname 21</t>
+  </si>
+  <si>
+    <t>Имя 21</t>
+  </si>
+  <si>
+    <t>Фамилия 21</t>
+  </si>
+  <si>
+    <t>Name 22</t>
+  </si>
+  <si>
+    <t>Surname 22</t>
+  </si>
+  <si>
+    <t>Имя 22</t>
+  </si>
+  <si>
+    <t>Фамилия 22</t>
+  </si>
+  <si>
+    <t>Name 23</t>
+  </si>
+  <si>
+    <t>Surname 23</t>
+  </si>
+  <si>
+    <t>Имя 23</t>
+  </si>
+  <si>
+    <t>Фамилия 23</t>
+  </si>
+  <si>
+    <t>Name 24</t>
+  </si>
+  <si>
+    <t>Surname 24</t>
+  </si>
+  <si>
+    <t>Имя 24</t>
+  </si>
+  <si>
+    <t>Фамилия 24</t>
+  </si>
+  <si>
+    <t>Name 25</t>
+  </si>
+  <si>
+    <t>Surname 25</t>
+  </si>
+  <si>
+    <t>Имя 25</t>
+  </si>
+  <si>
+    <t>Фамилия 25</t>
+  </si>
+  <si>
+    <t>Name 26</t>
+  </si>
+  <si>
+    <t>Surname 26</t>
+  </si>
+  <si>
+    <t>Имя 26</t>
+  </si>
+  <si>
+    <t>Фамилия 26</t>
+  </si>
+  <si>
+    <t>Name 27</t>
+  </si>
+  <si>
+    <t>Surname 27</t>
+  </si>
+  <si>
+    <t>Имя 27</t>
+  </si>
+  <si>
+    <t>Фамилия 27</t>
+  </si>
+  <si>
+    <t>Name 28</t>
+  </si>
+  <si>
+    <t>Surname 28</t>
+  </si>
+  <si>
+    <t>Имя 28</t>
+  </si>
+  <si>
+    <t>Фамилия 28</t>
+  </si>
+  <si>
+    <t>Name 29</t>
+  </si>
+  <si>
+    <t>Surname 29</t>
+  </si>
+  <si>
+    <t>Имя 29</t>
+  </si>
+  <si>
+    <t>Фамилия 29</t>
+  </si>
+  <si>
+    <t>Name 30</t>
+  </si>
+  <si>
+    <t>Surname 30</t>
+  </si>
+  <si>
+    <t>Имя 30</t>
+  </si>
+  <si>
+    <t>Фамилия 30</t>
+  </si>
+  <si>
+    <t>Name 31</t>
+  </si>
+  <si>
+    <t>Surname 31</t>
+  </si>
+  <si>
+    <t>Имя 31</t>
+  </si>
+  <si>
+    <t>Фамилия 31</t>
+  </si>
+  <si>
+    <t>Name 32</t>
+  </si>
+  <si>
+    <t>Surname 32</t>
+  </si>
+  <si>
+    <t>Имя 32</t>
+  </si>
+  <si>
+    <t>Фамилия 32</t>
+  </si>
+  <si>
+    <t>Name 33</t>
+  </si>
+  <si>
+    <t>Surname 33</t>
+  </si>
+  <si>
+    <t>Имя 33</t>
+  </si>
+  <si>
+    <t>Фамилия 33</t>
+  </si>
+  <si>
+    <t>Name 34</t>
+  </si>
+  <si>
+    <t>Surname 34</t>
+  </si>
+  <si>
+    <t>Имя 34</t>
+  </si>
+  <si>
+    <t>Фамилия 34</t>
+  </si>
+  <si>
+    <t>Name 35</t>
+  </si>
+  <si>
+    <t>Surname 35</t>
+  </si>
+  <si>
+    <t>Имя 35</t>
+  </si>
+  <si>
+    <t>Фамилия 35</t>
+  </si>
+  <si>
+    <t>Name 36</t>
+  </si>
+  <si>
+    <t>Surname 36</t>
+  </si>
+  <si>
+    <t>Имя 36</t>
+  </si>
+  <si>
+    <t>Фамилия 36</t>
+  </si>
+  <si>
+    <t>Name 37</t>
+  </si>
+  <si>
+    <t>Surname 37</t>
+  </si>
+  <si>
+    <t>Имя 37</t>
+  </si>
+  <si>
+    <t>Фамилия 37</t>
+  </si>
+  <si>
+    <t>Name 38</t>
+  </si>
+  <si>
+    <t>Surname 38</t>
+  </si>
+  <si>
+    <t>Имя 38</t>
+  </si>
+  <si>
+    <t>Фамилия 38</t>
+  </si>
+  <si>
+    <t>Name 39</t>
+  </si>
+  <si>
+    <t>Surname 39</t>
+  </si>
+  <si>
+    <t>Имя 39</t>
+  </si>
+  <si>
+    <t>Фамилия 39</t>
+  </si>
+  <si>
+    <t>Name 40</t>
+  </si>
+  <si>
+    <t>Surname 40</t>
+  </si>
+  <si>
+    <t>Имя 40</t>
+  </si>
+  <si>
+    <t>Фамилия 40</t>
+  </si>
+  <si>
+    <t>Name 41</t>
+  </si>
+  <si>
+    <t>Surname 41</t>
+  </si>
+  <si>
+    <t>Имя 41</t>
+  </si>
+  <si>
+    <t>Фамилия 41</t>
+  </si>
+  <si>
+    <t>Name 42</t>
+  </si>
+  <si>
+    <t>Surname 42</t>
+  </si>
+  <si>
+    <t>Имя 42</t>
+  </si>
+  <si>
+    <t>Фамилия 42</t>
+  </si>
+  <si>
+    <t>Name 43</t>
+  </si>
+  <si>
+    <t>Surname 43</t>
+  </si>
+  <si>
+    <t>Имя 43</t>
+  </si>
+  <si>
+    <t>Фамилия 43</t>
+  </si>
+  <si>
+    <t>Name 44</t>
+  </si>
+  <si>
+    <t>Surname 44</t>
+  </si>
+  <si>
+    <t>Имя 44</t>
+  </si>
+  <si>
+    <t>Фамилия 44</t>
+  </si>
+  <si>
+    <t>Name 45</t>
+  </si>
+  <si>
+    <t>Surname 45</t>
+  </si>
+  <si>
+    <t>Имя 45</t>
+  </si>
+  <si>
+    <t>Фамилия 45</t>
+  </si>
+  <si>
+    <t>Name 46</t>
+  </si>
+  <si>
+    <t>Surname 46</t>
+  </si>
+  <si>
+    <t>Имя 46</t>
+  </si>
+  <si>
+    <t>Фамилия 46</t>
+  </si>
+  <si>
+    <t>Name 47</t>
+  </si>
+  <si>
+    <t>Surname 47</t>
+  </si>
+  <si>
+    <t>Имя 47</t>
+  </si>
+  <si>
+    <t>Фамилия 47</t>
+  </si>
+  <si>
+    <t>Name 48</t>
+  </si>
+  <si>
+    <t>Surname 48</t>
+  </si>
+  <si>
+    <t>Имя 48</t>
+  </si>
+  <si>
+    <t>Фамилия 48</t>
+  </si>
+  <si>
+    <t>Name 49</t>
+  </si>
+  <si>
+    <t>Surname 49</t>
+  </si>
+  <si>
+    <t>Имя 49</t>
+  </si>
+  <si>
+    <t>Фамилия 49</t>
+  </si>
+  <si>
+    <t>Name 50</t>
+  </si>
+  <si>
+    <t>Surname 50</t>
+  </si>
+  <si>
+    <t>Имя 50</t>
+  </si>
+  <si>
+    <t>Фамилия 50</t>
+  </si>
+  <si>
+    <t>Name 51</t>
+  </si>
+  <si>
+    <t>Surname 51</t>
+  </si>
+  <si>
+    <t>Имя 51</t>
+  </si>
+  <si>
+    <t>Фамилия 51</t>
+  </si>
+  <si>
+    <t>Name 52</t>
+  </si>
+  <si>
+    <t>Surname 52</t>
+  </si>
+  <si>
+    <t>Имя 52</t>
+  </si>
+  <si>
+    <t>Фамилия 52</t>
+  </si>
+  <si>
+    <t>Name 53</t>
+  </si>
+  <si>
+    <t>Surname 53</t>
+  </si>
+  <si>
+    <t>Имя 53</t>
+  </si>
+  <si>
+    <t>Фамилия 53</t>
+  </si>
+  <si>
+    <t>Name 54</t>
+  </si>
+  <si>
+    <t>Surname 54</t>
+  </si>
+  <si>
+    <t>Имя 54</t>
+  </si>
+  <si>
+    <t>Фамилия 54</t>
+  </si>
+  <si>
+    <t>Name 55</t>
+  </si>
+  <si>
+    <t>Surname 55</t>
+  </si>
+  <si>
+    <t>Имя 55</t>
+  </si>
+  <si>
+    <t>Фамилия 55</t>
+  </si>
+  <si>
+    <t>Name 56</t>
+  </si>
+  <si>
+    <t>Surname 56</t>
+  </si>
+  <si>
+    <t>Имя 56</t>
+  </si>
+  <si>
+    <t>Фамилия 56</t>
   </si>
 </sst>
 </file>
@@ -271,6 +811,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +947,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>1345.0</v>
@@ -441,7 +984,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>1396.0</v>
@@ -478,7 +1021,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>1462.0</v>
@@ -514,7 +1057,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
       <c r="B7" s="1">
         <v>1528.0</v>
       </c>
@@ -550,10 +1095,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1594.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -576,9 +1121,7 @@
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1">
-        <v>9.0</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -590,7 +1133,12 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9">
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1660.0</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -624,8 +1172,12 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1726.0</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -659,8 +1211,12 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1792.0</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
@@ -694,8 +1250,12 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1858.0</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -720,532 +1280,1720 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1">
+        <v>52.3809523809523</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1924.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3">
+        <v>38454.0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1">
+        <v>58.2251082251081</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1990.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3">
+        <v>38099.0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1">
+        <v>61.634199134199</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2056.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3">
+        <v>37725.0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1">
+        <v>65.0432900432899</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2122.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3">
+        <v>37358.0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1">
+        <v>68.4523809523808</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2188.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3">
+        <v>37003.0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1">
+        <v>71.8614718614717</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2254.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3">
+        <v>36630.0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1">
+        <v>75.2705627705626</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2320.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3">
+        <v>36265.0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1">
+        <v>78.6796536796535</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2386.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="3">
+        <v>35901.0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1">
+        <v>82.0887445887444</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2452.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3">
+        <v>35902.0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1">
+        <v>85.4978354978353</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2518.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3">
+        <v>35903.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1">
+        <v>88.9069264069262</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2584.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3">
+        <v>35904.0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1">
+        <v>92.3160173160171</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2650.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3">
+        <v>38454.0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1">
+        <v>95.725108225108</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2716.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="3">
+        <v>38099.0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1">
+        <v>99.1341991341989</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2782.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>37725.0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1">
+        <v>102.54329004329</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2848.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3">
+        <v>37358.0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1">
+        <v>105.952380952381</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2914.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3">
+        <v>37003.0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1">
+        <v>109.361471861472</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2980.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>36630.0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1">
+        <v>112.770562770562</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3046.0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="3">
+        <v>36265.0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1">
+        <v>116.179653679653</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3112.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="3">
+        <v>35901.0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1">
+        <v>119.588744588744</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3178.0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="3">
+        <v>35902.0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1">
+        <v>122.997835497835</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3244.0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="3">
+        <v>35903.0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1">
+        <v>126.406926406926</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3310.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3">
+        <v>35904.0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1">
+        <v>129.816017316017</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3376.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3">
+        <v>38454.0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1">
+        <v>133.225108225108</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3442.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="3">
+        <v>38099.0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1">
+        <v>136.634199134199</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3508.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3">
+        <v>37725.0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="1">
+        <v>140.04329004329</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3574.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="3">
+        <v>37358.0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="M38" s="1">
+        <v>143.452380952381</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3640.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>37003.0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
+      <c r="M39" s="1">
+        <v>146.861471861472</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3706.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3">
+        <v>36630.0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="1">
+        <v>150.270562770562</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3772.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="3">
+        <v>38454.0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="1">
+        <v>153.679653679653</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3838.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="3">
+        <v>38099.0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="1">
+        <v>157.088744588744</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3904.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>37725.0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="1">
+        <v>160.497835497835</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3970.0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3">
+        <v>37358.0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="1">
+        <v>163.906926406926</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4036.0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3">
+        <v>37003.0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="1">
+        <v>167.316017316017</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4102.0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="3">
+        <v>36630.0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="M46" s="1">
+        <v>170.725108225108</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4168.0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3">
+        <v>36265.0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>174.134199134199</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4234.0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="3">
+        <v>35901.0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>177.54329004329</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4300.0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="3">
+        <v>35902.0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>180.952380952381</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4366.0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="3">
+        <v>35903.0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>184.361471861471</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4432.0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3">
+        <v>35904.0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>187.770562770562</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4498.0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="3">
+        <v>38454.0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="M52" s="1">
+        <v>191.179653679653</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4564.0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="3">
+        <v>38099.0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="M53" s="1">
+        <v>194.588744588744</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4630.0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="3">
+        <v>37725.0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="M54" s="1">
+        <v>197.997835497835</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4696.0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="3">
+        <v>37358.0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="M55" s="1">
+        <v>201.406926406926</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4762.0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="3">
+        <v>37003.0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="M56" s="1">
+        <v>204.816017316017</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4828.0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="3">
+        <v>36630.0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="M57" s="1">
+        <v>208.225108225108</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -1308,6 +3056,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
